--- a/dataset/saham/JII.xlsx
+++ b/dataset/saham/JII.xlsx
@@ -40,13 +40,7 @@
     <t xml:space="preserve">ANTM</t>
   </si>
   <si>
-    <t xml:space="preserve">APLN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BKSL</t>
+    <t xml:space="preserve">BIRD</t>
   </si>
   <si>
     <t xml:space="preserve">BMTR</t>
@@ -58,9 +52,6 @@
     <t xml:space="preserve">BRPT</t>
   </si>
   <si>
-    <t xml:space="preserve">BSDE</t>
-  </si>
-  <si>
     <t xml:space="preserve">BTPS</t>
   </si>
   <si>
@@ -82,7 +73,7 @@
     <t xml:space="preserve">EXCL</t>
   </si>
   <si>
-    <t xml:space="preserve">GIAA</t>
+    <t xml:space="preserve">HRUM</t>
   </si>
   <si>
     <t xml:space="preserve">ICBP</t>
@@ -97,6 +88,9 @@
     <t xml:space="preserve">INDF</t>
   </si>
   <si>
+    <t xml:space="preserve">INKP</t>
+  </si>
+  <si>
     <t xml:space="preserve">INTP</t>
   </si>
   <si>
@@ -112,7 +106,7 @@
     <t xml:space="preserve">JPFA</t>
   </si>
   <si>
-    <t xml:space="preserve">JSMR</t>
+    <t xml:space="preserve">JRPT</t>
   </si>
   <si>
     <t xml:space="preserve">KAEF</t>
@@ -124,15 +118,9 @@
     <t xml:space="preserve">KLBF</t>
   </si>
   <si>
-    <t xml:space="preserve">KREN</t>
-  </si>
-  <si>
     <t xml:space="preserve">LINK</t>
   </si>
   <si>
-    <t xml:space="preserve">LPKR</t>
-  </si>
-  <si>
     <t xml:space="preserve">LPPF</t>
   </si>
   <si>
@@ -160,7 +148,7 @@
     <t xml:space="preserve">PGAS</t>
   </si>
   <si>
-    <t xml:space="preserve">PPRO</t>
+    <t xml:space="preserve">POWR</t>
   </si>
   <si>
     <t xml:space="preserve">PTBA</t>
@@ -175,12 +163,21 @@
     <t xml:space="preserve">RALS</t>
   </si>
   <si>
+    <t xml:space="preserve">ROTI</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCMA</t>
   </si>
   <si>
     <t xml:space="preserve">SIDO</t>
   </si>
   <si>
+    <t xml:space="preserve">SILO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMP</t>
+  </si>
+  <si>
     <t xml:space="preserve">SMBR</t>
   </si>
   <si>
@@ -196,10 +193,10 @@
     <t xml:space="preserve">SSIA</t>
   </si>
   <si>
-    <t xml:space="preserve">TARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCPI</t>
+    <t xml:space="preserve">TINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKIM</t>
   </si>
   <si>
     <t xml:space="preserve">TLKM</t>
@@ -208,6 +205,12 @@
     <t xml:space="preserve">TPIA</t>
   </si>
   <si>
+    <t xml:space="preserve">UCID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ULTJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">UNTR</t>
   </si>
   <si>
@@ -227,9 +230,6 @@
   </si>
   <si>
     <t xml:space="preserve">WTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZINC</t>
   </si>
 </sst>
 </file>
@@ -264,6 +264,7 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -271,6 +272,7 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -362,17 +364,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -405,7 +407,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -460,7 +462,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -475,7 +477,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -505,7 +507,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -515,7 +517,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -535,7 +537,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -585,12 +587,12 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -610,7 +612,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -625,12 +627,12 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -645,7 +647,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -665,7 +667,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -680,12 +682,12 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
     </row>

--- a/dataset/saham/JII.xlsx
+++ b/dataset/saham/JII.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
   <si>
     <t xml:space="preserve">AALI</t>
   </si>
@@ -230,6 +231,54 @@
   </si>
   <si>
     <t xml:space="preserve">WTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZINC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BKSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPMX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KREN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GJTL</t>
   </si>
 </sst>
 </file>
@@ -327,7 +376,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -337,6 +386,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,11 +423,11 @@
   </sheetPr>
   <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -740,4 +793,463 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A86"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A85">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>#ref!="Baru"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>